--- a/Forecast_2025_Top3_Colombia.xlsx
+++ b/Forecast_2025_Top3_Colombia.xlsx
@@ -386,16 +386,16 @@
         <v>45658</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5200879320279</v>
+        <v>11.4124319539624</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0312019971101</v>
+        <v>10.7878235579822</v>
       </c>
       <c r="D2" t="n">
-        <v>10.7376192943171</v>
+        <v>10.7485683323832</v>
       </c>
       <c r="E2" t="n">
-        <v>11.096303074485</v>
+        <v>10.9829412814426</v>
       </c>
     </row>
     <row r="3">
@@ -403,16 +403,16 @@
         <v>45689</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4950356142316</v>
+        <v>10.5138544887157</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1270744526933</v>
+        <v>9.98819369188633</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4980432505364</v>
+        <v>10.2719432287721</v>
       </c>
       <c r="E3" t="n">
-        <v>10.3733844391537</v>
+        <v>10.257997136458</v>
       </c>
     </row>
     <row r="4">
@@ -420,16 +420,16 @@
         <v>45717</v>
       </c>
       <c r="B4" t="n">
-        <v>9.55011688301493</v>
+        <v>9.54474828169948</v>
       </c>
       <c r="C4" t="n">
-        <v>9.16909134516643</v>
+        <v>8.98734751954805</v>
       </c>
       <c r="D4" t="n">
-        <v>9.23825404425872</v>
+        <v>8.88740136029801</v>
       </c>
       <c r="E4" t="n">
-        <v>9.31915409081336</v>
+        <v>9.13983238718184</v>
       </c>
     </row>
     <row r="5">
@@ -437,16 +437,16 @@
         <v>45748</v>
       </c>
       <c r="B5" t="n">
-        <v>9.17836822221626</v>
+        <v>9.20683288640154</v>
       </c>
       <c r="C5" t="n">
-        <v>9.36070645848068</v>
+        <v>8.88226968105941</v>
       </c>
       <c r="D5" t="n">
-        <v>9.47121830715598</v>
+        <v>9.30000515493647</v>
       </c>
       <c r="E5" t="n">
-        <v>9.33676432928431</v>
+        <v>9.12970257413247</v>
       </c>
     </row>
     <row r="6">
@@ -454,16 +454,16 @@
         <v>45778</v>
       </c>
       <c r="B6" t="n">
-        <v>9.18595896996113</v>
+        <v>9.16559299133227</v>
       </c>
       <c r="C6" t="n">
-        <v>9.27861077573749</v>
+        <v>8.78459440252731</v>
       </c>
       <c r="D6" t="n">
-        <v>9.28539125708138</v>
+        <v>8.90474326849884</v>
       </c>
       <c r="E6" t="n">
-        <v>9.24998700092666</v>
+        <v>8.95164355411947</v>
       </c>
     </row>
     <row r="7">
@@ -471,16 +471,16 @@
         <v>45809</v>
       </c>
       <c r="B7" t="n">
-        <v>8.67473756691138</v>
+        <v>8.7900869748451</v>
       </c>
       <c r="C7" t="n">
-        <v>8.74386755528883</v>
+        <v>8.53719860379754</v>
       </c>
       <c r="D7" t="n">
-        <v>8.94138557086267</v>
+        <v>8.90755466246143</v>
       </c>
       <c r="E7" t="n">
-        <v>8.78666356435429</v>
+        <v>8.74494674703469</v>
       </c>
     </row>
     <row r="8">
@@ -488,16 +488,16 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>9.34494269052143</v>
+        <v>9.35323679735814</v>
       </c>
       <c r="C8" t="n">
-        <v>9.09678927836861</v>
+        <v>8.89980482720307</v>
       </c>
       <c r="D8" t="n">
-        <v>9.30525492056464</v>
+        <v>9.09766057997448</v>
       </c>
       <c r="E8" t="n">
-        <v>9.24899562981823</v>
+        <v>9.11690073484523</v>
       </c>
     </row>
     <row r="9">
@@ -505,16 +505,16 @@
         <v>45870</v>
       </c>
       <c r="B9" t="n">
-        <v>8.94130302747907</v>
+        <v>8.96955135327556</v>
       </c>
       <c r="C9" t="n">
-        <v>8.56981502201685</v>
+        <v>8.50610307847135</v>
       </c>
       <c r="D9" t="n">
-        <v>8.97983048669923</v>
+        <v>8.90934570726197</v>
       </c>
       <c r="E9" t="n">
-        <v>8.83031617873172</v>
+        <v>8.79500004633629</v>
       </c>
     </row>
     <row r="10">
@@ -522,16 +522,16 @@
         <v>45901</v>
       </c>
       <c r="B10" t="n">
-        <v>8.7203168242376</v>
+        <v>8.77244019094549</v>
       </c>
       <c r="C10" t="n">
-        <v>8.59511236285714</v>
+        <v>8.39242519042638</v>
       </c>
       <c r="D10" t="n">
-        <v>8.64232888179128</v>
+        <v>8.76405682699908</v>
       </c>
       <c r="E10" t="n">
-        <v>8.65258602296201</v>
+        <v>8.64297406945698</v>
       </c>
     </row>
     <row r="11">
@@ -539,16 +539,16 @@
         <v>45931</v>
       </c>
       <c r="B11" t="n">
-        <v>8.17459646892653</v>
+        <v>8.17023136946813</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0351369311826</v>
+        <v>7.95290162799037</v>
       </c>
       <c r="D11" t="n">
-        <v>8.53353879193419</v>
+        <v>8.44564303038375</v>
       </c>
       <c r="E11" t="n">
-        <v>8.24775739734777</v>
+        <v>8.18959200928075</v>
       </c>
     </row>
     <row r="12">
@@ -556,16 +556,16 @@
         <v>45962</v>
       </c>
       <c r="B12" t="n">
-        <v>7.93187852122978</v>
+        <v>7.99023078362086</v>
       </c>
       <c r="C12" t="n">
-        <v>7.74742095060147</v>
+        <v>7.69079507012444</v>
       </c>
       <c r="D12" t="n">
-        <v>7.79714946765343</v>
+        <v>7.93307451392235</v>
       </c>
       <c r="E12" t="n">
-        <v>7.82548297982823</v>
+        <v>7.87136678922255</v>
       </c>
     </row>
     <row r="13">
@@ -573,16 +573,16 @@
         <v>45992</v>
       </c>
       <c r="B13" t="n">
-        <v>8.50197490365528</v>
+        <v>8.57265282193513</v>
       </c>
       <c r="C13" t="n">
-        <v>8.10642008554117</v>
+        <v>7.95325673697908</v>
       </c>
       <c r="D13" t="n">
-        <v>8.47821518770602</v>
+        <v>8.4412193736851</v>
       </c>
       <c r="E13" t="n">
-        <v>8.36220339230082</v>
+        <v>8.32237631086644</v>
       </c>
     </row>
   </sheetData>
